--- a/segmento3.xlsx
+++ b/segmento3.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -460,11 +456,15 @@
           <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>45497.4375</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45497.59375</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10:30AM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>02:15PM</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,15 @@
           <t>ERIQUE CALLE, MARIA ANTONIETA</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>45497.4375</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45497.80208333334</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10:30AM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07:15PM</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -486,11 +490,15 @@
           <t>MONTEZUMA DEJO, EVELYN BRUNELLA</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>45497.4375</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45497.59375</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10:30AM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02:15PM</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -499,11 +507,15 @@
           <t>AGUILAR SCHLAEFLI, STEPHANIE XIMENA</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>45497.44791666666</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45497.60416666666</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:45AM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>02:30PM</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -512,11 +524,15 @@
           <t>YOVERA ROBLES, VICTOR EDUARDO</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>45497.45833333334</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45497.61458333334</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:00AM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>02:45PM</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -525,11 +541,15 @@
           <t>CARHUARICRA ESPINOZA, FIORELLA NICOLL</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>45497.45833333334</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45497.61458333334</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11:00AM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>02:45PM</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -538,11 +558,15 @@
           <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>45497.45833333334</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45497.61458333334</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11:00AM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02:45PM</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -551,11 +575,15 @@
           <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>45497.46875</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>45497.625</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11:15AM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>03:00PM</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -564,11 +592,15 @@
           <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>45497.5</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>45497.65625</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12:00PM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>03:45PM</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -577,11 +609,15 @@
           <t>ILDEFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>45497.5</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>45497.65625</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12:00PM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>03:45PM</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -590,11 +626,15 @@
           <t>ARIAS MACHACUAY, SADELITH SORAGGI</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>45497.75</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>45497.90625</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>06:00PM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09:45PM</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -603,11 +643,15 @@
           <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>45497.76041666666</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>45497.91666666666</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>06:15PM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10:00PM</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -616,11 +660,15 @@
           <t>MEDINA MARCELO, NAOMI ARIADNA</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>45497.76041666666</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45497.91666666666</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>06:15PM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10:00PM</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -629,11 +677,15 @@
           <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>45497.79166666666</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45497.94791666666</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>07:00PM</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10:45PM</t>
+        </is>
       </c>
     </row>
   </sheetData>
